--- a/data/trans_dic/iP18_E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,19; 95,95</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,89; 96,46</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,05; 97,55</t>
+          <t>84,81; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86,79; 98,24</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,9; 96,29</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,75; 99,28</t>
+          <t>74,8; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,25; 96,72</t>
+          <t>75,9; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,05; 96,62</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,38; 95,38</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>94,17; 97,42</t>
+          <t>88,01; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93,23; 96,55</t>
+          <t>87,24; 98,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,04; 96,62</t>
+          <t>86,51; 100</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81,97%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>93,42%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,74; 95,56</t>
+          <t>90,19; 95,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,8; 96,23</t>
+          <t>90,89; 96,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,06; 93,46</t>
+          <t>93,05; 97,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,7; 97,9</t>
+          <t>86,79; 98,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,68; 95,75</t>
+          <t>89,9; 96,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,0; 96,26</t>
+          <t>95,75; 99,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,16; 96,21</t>
+          <t>91,25; 96,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,22; 92,31</t>
+          <t>80,05; 96,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,96; 94,57</t>
+          <t>91,38; 95,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,54; 95,73</t>
+          <t>94,17; 97,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,4; 93,92</t>
+          <t>93,23; 96,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>78,29; 92,72</t>
+          <t>87,04; 96,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,23%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,64; 100</t>
+          <t>88,13; 95,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,19; 100</t>
+          <t>88,88; 95,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,81; 100,0</t>
+          <t>92,24; 97,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>78,2; 97,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100</t>
+          <t>86,8; 94,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,8; 100,0</t>
+          <t>88,7; 95,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,9; 100,0</t>
+          <t>91,22; 97,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>50,89; 89,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,52; 100</t>
+          <t>88,52; 94,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>88,01; 100,0</t>
+          <t>90,32; 95,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87,24; 98,91</t>
+          <t>92,89; 96,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>70,11; 92,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>81,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>91,65%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>86,32%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,13; 95,6</t>
+          <t>88,74; 95,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,88; 95,81</t>
+          <t>90,8; 96,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,24; 97,55</t>
+          <t>86,06; 93,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,2; 97,98</t>
+          <t>78,7; 97,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,8; 94,64</t>
+          <t>89,68; 95,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,7; 95,83</t>
+          <t>90,0; 96,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,22; 97,04</t>
+          <t>90,16; 96,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,89; 89,11</t>
+          <t>67,22; 92,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,52; 94,18</t>
+          <t>89,96; 94,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,19</t>
+          <t>91,54; 95,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>92,89; 96,74</t>
+          <t>89,4; 93,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,11; 92,0</t>
+          <t>78,29; 92,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP18_E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,81; 100,0</t>
+          <t>85,24; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,8; 100,0</t>
+          <t>72,91; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,9; 100,0</t>
+          <t>72,67; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>88,01; 100,0</t>
+          <t>87,16; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>87,24; 98,91</t>
+          <t>85,81; 98,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,26; 96,38</t>
+          <t>87,56; 96,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,55; 99,48</t>
+          <t>95,37; 99,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,78; 98,04</t>
+          <t>91,22; 98,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,78; 100,0</t>
+          <t>81,02; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,13; 98,52</t>
+          <t>91,21; 97,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,27; 97,23</t>
+          <t>89,14; 97,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,19; 96,63</t>
+          <t>88,29; 96,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,78; 100,0</t>
+          <t>68,36; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,81; 96,55</t>
+          <t>90,86; 96,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,64; 97,98</t>
+          <t>93,24; 97,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,95; 96,92</t>
+          <t>91,39; 96,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,28; 98,24</t>
+          <t>84,13; 98,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,19; 95,95</t>
+          <t>89,96; 95,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,89; 96,46</t>
+          <t>90,7; 96,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,05; 97,55</t>
+          <t>93,26; 97,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,79; 98,24</t>
+          <t>86,51; 98,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,9; 96,29</t>
+          <t>90,6; 96,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,75; 99,28</t>
+          <t>95,76; 99,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,25; 96,72</t>
+          <t>91,1; 96,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,05; 96,62</t>
+          <t>78,66; 96,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,38; 95,38</t>
+          <t>91,43; 95,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,17; 97,42</t>
+          <t>93,92; 97,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>93,23; 96,55</t>
+          <t>93,25; 96,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,04; 96,62</t>
+          <t>87,79; 96,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,13; 95,6</t>
+          <t>87,6; 95,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,88; 95,81</t>
+          <t>89,05; 95,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,24; 97,55</t>
+          <t>92,33; 97,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,2; 97,98</t>
+          <t>80,38; 97,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,8; 94,64</t>
+          <t>86,64; 94,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,7; 95,83</t>
+          <t>89,45; 95,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,22; 97,04</t>
+          <t>91,15; 97,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,89; 89,11</t>
+          <t>51,85; 89,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,52; 94,18</t>
+          <t>88,6; 94,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,19</t>
+          <t>90,2; 95,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,89; 96,74</t>
+          <t>92,85; 96,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,11; 92,0</t>
+          <t>71,86; 92,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,74; 95,56</t>
+          <t>88,94; 95,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,8; 96,23</t>
+          <t>90,59; 96,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,06; 93,46</t>
+          <t>84,83; 92,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,7; 97,9</t>
+          <t>79,6; 97,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,68; 95,75</t>
+          <t>89,34; 95,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,0; 96,26</t>
+          <t>90,01; 96,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,16; 96,21</t>
+          <t>90,19; 96,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>67,22; 92,31</t>
+          <t>68,77; 93,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,96; 94,57</t>
+          <t>90,17; 94,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,54; 95,73</t>
+          <t>91,48; 95,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,4; 93,92</t>
+          <t>89,18; 93,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>78,29; 92,72</t>
+          <t>78,42; 92,39</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,34; 94,55</t>
+          <t>91,3; 94,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,2; 95,91</t>
+          <t>93,12; 95,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,44; 95,29</t>
+          <t>92,42; 95,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>89,48; 96,63</t>
+          <t>89,71; 96,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,8; 95,06</t>
+          <t>91,7; 95,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,22; 96,04</t>
+          <t>93,16; 95,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,45; 95,38</t>
+          <t>92,32; 95,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,69; 90,2</t>
+          <t>76,35; 89,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,03; 94,36</t>
+          <t>92,01; 94,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,56; 95,72</t>
+          <t>93,58; 95,62</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>92,95; 95,14</t>
+          <t>93,08; 95,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>85,48; 92,87</t>
+          <t>85,42; 92,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP18_E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,24; 100,0</t>
+          <t>85,34; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,91; 100,0</t>
+          <t>73,95; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,67; 100,0</t>
+          <t>66,36; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,16; 100,0</t>
+          <t>87,57; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,81; 98,87</t>
+          <t>86,66; 98,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,47 +864,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,56; 96,52</t>
+          <t>88,21; 96,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,37; 99,48</t>
+          <t>95,22; 99,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,22; 98,02</t>
+          <t>91,58; 98,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,02; 100,0</t>
+          <t>84,51; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,21; 97,96</t>
+          <t>91,28; 98,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,14; 97,2</t>
+          <t>88,63; 96,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,29; 96,48</t>
+          <t>88,38; 96,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,36; 100,0</t>
+          <t>74,02; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 96,59</t>
+          <t>91,03; 96,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,19 +914,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,39; 96,72</t>
+          <t>90,95; 96,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,13; 98,21</t>
+          <t>82,28; 98,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,96; 95,74</t>
+          <t>89,62; 95,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,7; 96,31</t>
+          <t>90,83; 96,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,26; 97,57</t>
+          <t>93,14; 97,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,51; 98,35</t>
+          <t>87,9; 98,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,6; 96,4</t>
+          <t>90,84; 96,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,76; 99,25</t>
+          <t>95,7; 99,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,1; 96,51</t>
+          <t>90,87; 96,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,66; 96,48</t>
+          <t>78,49; 96,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,43; 95,5</t>
+          <t>91,49; 95,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,92; 97,31</t>
+          <t>93,87; 97,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>93,25; 96,57</t>
+          <t>93,17; 96,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,79; 96,67</t>
+          <t>87,64; 96,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,6; 95,06</t>
+          <t>87,66; 95,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,05; 95,65</t>
+          <t>88,89; 95,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,33; 97,5</t>
+          <t>91,95; 97,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,38; 97,95</t>
+          <t>79,56; 97,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,64; 94,41</t>
+          <t>86,26; 94,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,45; 95,83</t>
+          <t>88,99; 95,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,15; 97,1</t>
+          <t>90,99; 97,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,85; 89,56</t>
+          <t>51,39; 88,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,6; 94,14</t>
+          <t>88,63; 94,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,2; 95,0</t>
+          <t>90,31; 95,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,85; 96,83</t>
+          <t>92,96; 96,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,86; 92,13</t>
+          <t>71,48; 92,1</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,94; 95,37</t>
+          <t>89,13; 95,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,59; 96,44</t>
+          <t>90,24; 96,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,83; 92,93</t>
+          <t>85,54; 92,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,6; 97,95</t>
+          <t>78,67; 97,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,34; 95,71</t>
+          <t>88,97; 95,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,01; 96,09</t>
+          <t>90,04; 96,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,19; 96,09</t>
+          <t>90,09; 96,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,77; 93,13</t>
+          <t>69,25; 91,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,17; 94,91</t>
+          <t>90,12; 94,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,48; 95,6</t>
+          <t>91,44; 95,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,18; 93,75</t>
+          <t>89,15; 93,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>78,42; 92,39</t>
+          <t>77,32; 92,59</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,3; 94,68</t>
+          <t>91,23; 94,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,12; 95,83</t>
+          <t>93,16; 96,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,42; 95,45</t>
+          <t>92,39; 95,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>89,71; 96,79</t>
+          <t>89,74; 96,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,7; 95,01</t>
+          <t>91,83; 94,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,16; 95,98</t>
+          <t>93,17; 96,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,37</t>
+          <t>92,18; 95,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,35; 89,92</t>
+          <t>74,9; 90,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,01; 94,31</t>
+          <t>92,12; 94,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,58; 95,62</t>
+          <t>93,66; 95,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>93,08; 95,1</t>
+          <t>92,88; 95,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>85,42; 92,64</t>
+          <t>85,02; 92,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP18_E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,56%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,64; 100</t>
+          <t>92,64; 98,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,19; 100</t>
+          <t>89,02; 96,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,34; 100,0</t>
+          <t>88,75; 96,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>77,34; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100</t>
+          <t>89,09; 97,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,95; 100,0</t>
+          <t>95,47; 99,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,36; 100,0</t>
+          <t>92,62; 98,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>86,79; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,52; 100</t>
+          <t>92,26; 96,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,57; 100,0</t>
+          <t>93,71; 97,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>86,66; 98,84</t>
+          <t>91,83; 96,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>88,47; 98,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>93,57%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,21; 96,29</t>
+          <t>89,9; 96,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,22; 99,48</t>
+          <t>95,75; 99,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,58; 98,57</t>
+          <t>91,25; 96,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,51; 100,0</t>
+          <t>80,18; 96,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,28; 98,5</t>
+          <t>90,19; 95,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,63; 96,91</t>
+          <t>90,89; 96,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,38; 96,7</t>
+          <t>93,05; 97,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,02; 100,0</t>
+          <t>87,62; 98,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,03; 96,43</t>
+          <t>91,38; 95,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,24; 97,92</t>
+          <t>94,17; 97,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>90,95; 96,55</t>
+          <t>93,23; 96,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>82,28; 98,13</t>
+          <t>87,48; 96,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>72,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>82,98%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,62; 95,92</t>
+          <t>86,8; 94,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,83; 96,41</t>
+          <t>88,7; 95,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,14; 97,56</t>
+          <t>91,22; 97,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,9; 98,83</t>
+          <t>45,27; 88,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,84; 96,41</t>
+          <t>88,13; 95,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,7; 99,05</t>
+          <t>88,88; 95,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,87; 96,4</t>
+          <t>92,24; 97,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,49; 96,29</t>
+          <t>77,73; 98,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,49; 95,63</t>
+          <t>88,52; 94,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,87; 97,2</t>
+          <t>90,32; 95,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>93,17; 96,52</t>
+          <t>92,89; 96,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,64; 96,78</t>
+          <t>66,31; 91,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>82,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,65%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>86,47%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,66; 95,17</t>
+          <t>89,68; 95,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,89; 95,8</t>
+          <t>90,0; 96,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,95; 97,57</t>
+          <t>90,16; 96,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,56; 97,99</t>
+          <t>67,97; 92,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,26; 94,5</t>
+          <t>88,74; 95,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,99; 95,85</t>
+          <t>90,8; 96,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,99; 97,03</t>
+          <t>86,06; 93,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,39; 88,83</t>
+          <t>78,61; 97,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,63; 94,1</t>
+          <t>89,96; 94,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,31; 95,27</t>
+          <t>91,54; 95,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,96; 96,86</t>
+          <t>89,4; 93,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,48; 92,1</t>
+          <t>78,88; 92,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1241,37 +1241,37 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>81,97%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>89,53%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,13; 95,63</t>
+          <t>91,8; 95,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,24; 96,2</t>
+          <t>93,22; 96,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,54; 92,93</t>
+          <t>92,45; 95,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,67; 97,86</t>
+          <t>73,69; 89,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,97; 95,72</t>
+          <t>91,34; 94,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,04; 96,06</t>
+          <t>93,2; 95,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,09; 96,12</t>
+          <t>92,44; 95,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,25; 91,93</t>
+          <t>89,42; 96,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,12; 94,85</t>
+          <t>92,03; 94,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,7</t>
+          <t>93,56; 95,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,15; 93,73</t>
+          <t>92,95; 95,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,32; 92,59</t>
+          <t>84,66; 92,79</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>93,04%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>94,66%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>94,11%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>93,84%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>93,57%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>94,72%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>94,05%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>84,67%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>93,3%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>94,69%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>94,08%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>89,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>91,23; 94,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>93,16; 96,02</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>92,39; 95,41</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>89,74; 96,79</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>91,83; 94,98</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>93,17; 96,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>92,18; 95,33</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>74,9; 90,14</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>92,12; 94,37</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>93,66; 95,61</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>92,88; 95,0</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>85,02; 92,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
